--- a/4-思途HTML5前端模块化案例教学v3.0.xlsx
+++ b/4-思途HTML5前端模块化案例教学v3.0.xlsx
@@ -9,21 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="21030" windowHeight="8910"/>
+    <workbookView xWindow="480" yWindow="108" windowWidth="21036" windowHeight="8916" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1 (2)" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$C$2:$H$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Sheet1 (2)'!$C$2:$H$10</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="68">
   <si>
     <t>难易程度（最高5颗星）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -205,10 +207,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>html+css</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">1.网页的结构组成
 2.商业化网站的实现
 </t>
@@ -268,10 +266,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>从菜鸟到大神的蜕变</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -303,10 +297,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Jquery</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>常见网页动画总结25例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -341,12 +331,58 @@
     <t>让你的网站运动效果更加绚丽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>javascript+jQuery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用标签
+盒模型
+浮动
+定位
+背景样式
+字体文本样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频
+音频
+canvas
+GPS定位
+本地存储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取元素
+遍历元素
+事件
+效果
+添加删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取元素
+遍历元素
+事件
+效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>媒体查询
+vw
+boostrap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -448,23 +484,38 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -506,8 +557,20 @@
         <bgColor theme="0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="41">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -648,19 +711,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="1" tint="0.499984740745262"/>
       </left>
       <right style="thin">
@@ -956,21 +1006,6 @@
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1029,7 +1064,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1051,182 +1086,284 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1253,7 +1390,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1544,56 +1681,56 @@
   </sheetPr>
   <dimension ref="C2:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="10.8"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1"/>
-    <col min="2" max="2" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5" style="1" customWidth="1"/>
-    <col min="4" max="5" width="32.875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="35.375" style="24" customWidth="1"/>
-    <col min="7" max="7" width="41.625" style="24" customWidth="1"/>
-    <col min="8" max="8" width="35.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.875" style="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="32.88671875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="35.33203125" style="22" customWidth="1"/>
+    <col min="7" max="7" width="41.6640625" style="22" customWidth="1"/>
+    <col min="8" max="8" width="35.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:16" ht="87.6" customHeight="1">
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="42"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="3:16" ht="84" customHeight="1">
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="45"/>
-    </row>
-    <row r="4" spans="3:16" s="3" customFormat="1" ht="46.9" customHeight="1">
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
+    </row>
+    <row r="4" spans="3:16" s="3" customFormat="1" ht="46.95" customHeight="1">
       <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="25" t="s">
         <v>3</v>
       </c>
       <c r="H4" s="5" t="s">
@@ -1608,23 +1745,23 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="3:16" s="3" customFormat="1" ht="109.9" customHeight="1">
-      <c r="C5" s="29" t="s">
+    <row r="5" spans="3:16" s="3" customFormat="1" ht="109.95" customHeight="1">
+      <c r="C5" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="30" t="s">
         <v>7</v>
       </c>
       <c r="I5" s="2"/>
@@ -1636,24 +1773,22 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="3:16" s="3" customFormat="1" ht="109.9" customHeight="1">
-      <c r="C6" s="57" t="s">
+    <row r="6" spans="3:16" s="3" customFormat="1" ht="109.95" customHeight="1">
+      <c r="C6" s="52"/>
+      <c r="D6" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="E6" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="F6" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="G6" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="36" t="s">
+      <c r="H6" s="15" t="s">
         <v>44</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>45</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1664,22 +1799,22 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="3:16" s="3" customFormat="1" ht="76.900000000000006" customHeight="1">
-      <c r="C7" s="59"/>
-      <c r="D7" s="35" t="s">
+    <row r="7" spans="3:16" s="3" customFormat="1" ht="76.95" customHeight="1">
+      <c r="C7" s="53"/>
+      <c r="D7" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="F7" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="G7" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>45</v>
+      <c r="H7" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1690,24 +1825,24 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="3:16" s="3" customFormat="1" ht="100.15" customHeight="1">
-      <c r="C8" s="8" t="s">
+    <row r="8" spans="3:16" s="3" customFormat="1" ht="100.2" customHeight="1">
+      <c r="C8" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="F8" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="G8" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="H8" s="15" t="s">
         <v>53</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>55</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1719,23 +1854,21 @@
       <c r="P8" s="2"/>
     </row>
     <row r="9" spans="3:16" s="3" customFormat="1" ht="75" customHeight="1">
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="52"/>
+      <c r="D9" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="G9" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="H9" s="15" t="s">
         <v>58</v>
-      </c>
-      <c r="F9" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>61</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1747,19 +1880,19 @@
       <c r="P9" s="2"/>
     </row>
     <row r="10" spans="3:16" s="3" customFormat="1" ht="84" customHeight="1">
-      <c r="C10" s="58"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="38" t="s">
+      <c r="C10" s="75"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>61</v>
+      <c r="G10" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1770,23 +1903,23 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="3:16" s="3" customFormat="1" ht="55.15" customHeight="1">
-      <c r="C11" s="46" t="s">
+    <row r="11" spans="3:16" s="3" customFormat="1" ht="55.2" customHeight="1">
+      <c r="C11" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="63" t="s">
+      <c r="F11" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="60" t="s">
+      <c r="G11" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="39" t="s">
+      <c r="H11" s="35" t="s">
         <v>24</v>
       </c>
       <c r="I11" s="2"/>
@@ -1799,14 +1932,14 @@
       <c r="P11" s="2"/>
     </row>
     <row r="12" spans="3:16" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="C12" s="47"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="9" t="s">
+      <c r="C12" s="44"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="64"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="20" t="s">
+      <c r="F12" s="58"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="18" t="s">
         <v>4</v>
       </c>
       <c r="I12" s="2"/>
@@ -1819,14 +1952,14 @@
       <c r="P12" s="2"/>
     </row>
     <row r="13" spans="3:16" s="3" customFormat="1" ht="36" customHeight="1">
-      <c r="C13" s="47"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="9" t="s">
+      <c r="C13" s="44"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="64"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="20" t="s">
+      <c r="F13" s="58"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="18" t="s">
         <v>4</v>
       </c>
       <c r="I13" s="2"/>
@@ -1838,15 +1971,15 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="3:16" s="3" customFormat="1" ht="37.15" customHeight="1">
-      <c r="C14" s="47"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="9" t="s">
+    <row r="14" spans="3:16" s="3" customFormat="1" ht="37.200000000000003" customHeight="1">
+      <c r="C14" s="44"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="65"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="21" t="s">
+      <c r="F14" s="59"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="19" t="s">
         <v>7</v>
       </c>
       <c r="I14" s="2"/>
@@ -1858,21 +1991,21 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="3:16" s="3" customFormat="1" ht="94.15" customHeight="1">
-      <c r="C15" s="47"/>
-      <c r="D15" s="49" t="s">
+    <row r="15" spans="3:16" s="3" customFormat="1" ht="94.2" customHeight="1">
+      <c r="C15" s="44"/>
+      <c r="D15" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="52" t="s">
+      <c r="F15" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="52" t="s">
+      <c r="G15" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="55" t="s">
+      <c r="H15" s="49" t="s">
         <v>7</v>
       </c>
       <c r="I15" s="2"/>
@@ -1884,15 +2017,15 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="3:16" s="3" customFormat="1" ht="62.45" customHeight="1">
-      <c r="C16" s="47"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="11" t="s">
+    <row r="16" spans="3:16" s="3" customFormat="1" ht="62.4" customHeight="1">
+      <c r="C16" s="44"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="53"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="56"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="50"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -1903,20 +2036,20 @@
       <c r="P16" s="2"/>
     </row>
     <row r="17" spans="3:16" s="3" customFormat="1" ht="96.6" customHeight="1">
-      <c r="C17" s="48"/>
-      <c r="D17" s="12" t="s">
+      <c r="C17" s="45"/>
+      <c r="D17" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="28" t="s">
+      <c r="G17" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="H17" s="19" t="s">
+      <c r="H17" s="17" t="s">
         <v>18</v>
       </c>
       <c r="I17" s="2"/>
@@ -1928,23 +2061,23 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="3:16" s="3" customFormat="1" ht="124.9" customHeight="1">
-      <c r="C18" s="14" t="s">
+    <row r="18" spans="3:16" s="3" customFormat="1" ht="124.95" customHeight="1">
+      <c r="C18" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="F18" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="G18" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="18" t="s">
+      <c r="H18" s="16" t="s">
         <v>18</v>
       </c>
       <c r="I18" s="2"/>
@@ -1956,12 +2089,12 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="3:16" s="3" customFormat="1" ht="25.9" customHeight="1">
+    <row r="19" spans="3:16" s="3" customFormat="1" ht="25.95" customHeight="1">
       <c r="C19" s="1"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
       <c r="H19" s="1"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -1972,12 +2105,12 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="3:16" s="3" customFormat="1" ht="25.9" customHeight="1">
+    <row r="20" spans="3:16" s="3" customFormat="1" ht="25.95" customHeight="1">
       <c r="C20" s="1"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
       <c r="H20" s="1"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -1988,12 +2121,12 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="3:16" s="3" customFormat="1" ht="25.9" customHeight="1">
+    <row r="21" spans="3:16" s="3" customFormat="1" ht="25.95" customHeight="1">
       <c r="C21" s="1"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
       <c r="H21" s="1"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -2008,8 +2141,8 @@
       <c r="C22" s="1"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
       <c r="H22" s="1"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -2024,8 +2157,8 @@
       <c r="C23" s="1"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
       <c r="H23" s="1"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -2040,8 +2173,8 @@
       <c r="C24" s="1"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
       <c r="H24" s="1"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -2062,11 +2195,11 @@
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="H15:H16"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C6:C7"/>
     <mergeCell ref="G11:G14"/>
     <mergeCell ref="F11:F14"/>
     <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2076,11 +2209,546 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="C2:P24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="10.8"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="32.88671875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="35.33203125" style="22" customWidth="1"/>
+    <col min="7" max="7" width="41.6640625" style="22" customWidth="1"/>
+    <col min="8" max="8" width="35.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:16" ht="87.6" customHeight="1">
+      <c r="C2" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="39"/>
+    </row>
+    <row r="3" spans="3:16" ht="84" customHeight="1">
+      <c r="C3" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="99"/>
+    </row>
+    <row r="4" spans="3:16" s="68" customFormat="1" ht="46.95" customHeight="1">
+      <c r="C4" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="73" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="67"/>
+    </row>
+    <row r="5" spans="3:16" s="3" customFormat="1" ht="109.95" customHeight="1">
+      <c r="C5" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="3:16" s="3" customFormat="1" ht="109.95" customHeight="1">
+      <c r="C6" s="52"/>
+      <c r="D6" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="83" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="3:16" s="3" customFormat="1" ht="76.95" customHeight="1">
+      <c r="C7" s="53"/>
+      <c r="D7" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="83" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="3:16" s="3" customFormat="1" ht="100.2" customHeight="1">
+      <c r="C8" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="3:16" s="3" customFormat="1" ht="75" customHeight="1">
+      <c r="C9" s="52"/>
+      <c r="D9" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="83" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="3:16" s="3" customFormat="1" ht="84" customHeight="1">
+      <c r="C10" s="75"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="83" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="3:16" s="3" customFormat="1" ht="55.2" customHeight="1">
+      <c r="C11" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="85" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="86" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="84" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="3:16" s="3" customFormat="1" ht="48" customHeight="1">
+      <c r="C12" s="44"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="3:16" s="3" customFormat="1" ht="36" customHeight="1">
+      <c r="C13" s="44"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="3:16" s="3" customFormat="1" ht="37.200000000000003" customHeight="1">
+      <c r="C14" s="44"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="3:16" s="3" customFormat="1" ht="94.2" customHeight="1">
+      <c r="C15" s="44"/>
+      <c r="D15" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="90" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="90" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="3:16" s="3" customFormat="1" ht="62.4" customHeight="1">
+      <c r="C16" s="44"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="91" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="92"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="3:16" s="3" customFormat="1" ht="96.6" customHeight="1">
+      <c r="C17" s="45"/>
+      <c r="D17" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="94" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="94" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="95" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+    </row>
+    <row r="18" spans="3:16" s="3" customFormat="1" ht="124.95" customHeight="1">
+      <c r="C18" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="96" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="96" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="96" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="3:16" s="3" customFormat="1" ht="25.95" customHeight="1">
+      <c r="C19" s="1"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+    </row>
+    <row r="20" spans="3:16" s="3" customFormat="1" ht="25.95" customHeight="1">
+      <c r="C20" s="1"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+    </row>
+    <row r="21" spans="3:16" s="3" customFormat="1" ht="25.95" customHeight="1">
+      <c r="C21" s="1"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+    </row>
+    <row r="22" spans="3:16" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="C22" s="1"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+    </row>
+    <row r="23" spans="3:16" s="3" customFormat="1" ht="39.6" customHeight="1">
+      <c r="C23" s="1"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+    </row>
+    <row r="24" spans="3:16" s="3" customFormat="1" ht="39" customHeight="1">
+      <c r="C24" s="1"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C11:C17"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="D15:D16"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22:I36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
